--- a/data/trans_bre/P15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P15-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P15-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,71%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,73; 5,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,46; -1,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 7,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,74; 4,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,8; 176,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,24; 2,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,54; 531,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,11; 153,33</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,19%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,52; -0,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 3,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 4,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 1,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,73; -10,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,79; 62,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,54; 80,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,74; 33,37</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,79%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,76%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,26; -0,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,3; 1,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; 0,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 1,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,29; -3,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,8; 25,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,37; 18,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,09; 38,46</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,38%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 2,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,87; 1,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 3,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,4; 22,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,95; 36,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,39; 39,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,02; 124,43</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,01%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 0,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,25; -0,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 1,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 2,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,4; 10,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,75; -0,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,71; 33,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,04; 41,76</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; -1,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 0,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 0,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,0; -15,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,57; 1,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,2; 10,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,63; 22,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P15-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,46</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-16,59%</t>
+          <t>-38,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-61,59%</t>
+          <t>-8,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>-9,4%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 5,15</t>
+          <t>-5,61; -0,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,46; -1,2</t>
+          <t>-3,93; 1,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 7,94</t>
+          <t>-1,6; 3,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 4,48</t>
+          <t>-3,61; 1,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-71,8; 176,31</t>
+          <t>-57,37; -6,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-88,24; 2,71</t>
+          <t>-39,48; 29,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-69,54; 531,36</t>
+          <t>-23,13; 80,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-70,11; 153,33</t>
+          <t>-38,54; 30,15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-41,9%</t>
+          <t>-30,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>-9,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>-21,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,19%</t>
+          <t>6,26%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,52; -0,81</t>
+          <t>-5,26; -0,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,89</t>
+          <t>-3,3; 1,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,12</t>
+          <t>-3,24; 0,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,74</t>
+          <t>-2,46; 3,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,73; -10,26</t>
+          <t>-52,29; -3,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,79; 62,86</t>
+          <t>-33,8; 25,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 80,98</t>
+          <t>-46,37; 18,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 33,37</t>
+          <t>-32,76; 128,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-30,79%</t>
+          <t>-24,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,47%</t>
+          <t>-4,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-21,22%</t>
+          <t>-16,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-8,76%</t>
+          <t>13,91%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; -0,27</t>
+          <t>-4,37; 1,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,76</t>
+          <t>-3,02; 2,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,88</t>
+          <t>-2,87; 1,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,89</t>
+          <t>-2,35; 2,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,29; -3,35</t>
+          <t>-52,4; 22,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 25,71</t>
+          <t>-32,95; 36,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,37; 18,88</t>
+          <t>-48,39; 39,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 38,46</t>
+          <t>-43,49; 92,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-24,2%</t>
+          <t>-24,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,79%</t>
+          <t>-26,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,71%</t>
+          <t>-7,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>-0,79%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,15</t>
+          <t>-3,42; 0,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,29</t>
+          <t>-5,25; -0,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,4</t>
+          <t>-2,65; 1,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,78</t>
+          <t>-2,15; 2,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,4; 22,3</t>
+          <t>-48,4; 10,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 36,98</t>
+          <t>-47,75; -0,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 39,48</t>
+          <t>-35,71; 33,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 124,43</t>
+          <t>-29,79; 39,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-24,01%</t>
+          <t>-30,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-26,98%</t>
+          <t>-13,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-7,62%</t>
+          <t>-8,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 0,48</t>
+          <t>-3,4; -1,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; -0,07</t>
+          <t>-2,56; 0,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,82</t>
+          <t>-1,53; 0,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,1</t>
+          <t>-1,36; 1,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 10,56</t>
+          <t>-42,0; -15,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-47,75; -0,67</t>
+          <t>-28,57; 1,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-35,71; 33,84</t>
+          <t>-24,2; 10,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 41,76</t>
+          <t>-20,85; 32,53</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,23</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-30,03%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-13,88%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-8,16%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; -1,08</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 0,12</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 0,59</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 1,19</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-42,0; -15,88</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-28,57; 1,61</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-24,2; 10,77</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-16,63; 22,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P15-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; -0,55</t>
+          <t>-5,72; -0,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1,99</t>
+          <t>-3,39; 2,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,93</t>
+          <t>-1,89; 3,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 1,65</t>
+          <t>-3,11; 1,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-57,37; -6,64</t>
+          <t>-57,53; -7,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-39,48; 29,39</t>
+          <t>-35,86; 34,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 80,23</t>
+          <t>-23,75; 74,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-38,54; 30,15</t>
+          <t>-35,9; 29,86</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,26; -0,27</t>
+          <t>-5,28; -0,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 1,76</t>
+          <t>-3,27; 1,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,88</t>
+          <t>-3,35; 0,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,95</t>
+          <t>-2,32; 3,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,29; -3,35</t>
+          <t>-51,08; -2,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 25,71</t>
+          <t>-35,67; 24,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,37; 18,88</t>
+          <t>-47,97; 17,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 128,01</t>
+          <t>-30,91; 105,41</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,15</t>
+          <t>-4,29; 0,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,29</t>
+          <t>-3,22; 2,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,4</t>
+          <t>-3,14; 1,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,93</t>
+          <t>-2,24; 3,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,4; 22,3</t>
+          <t>-50,44; 15,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 36,98</t>
+          <t>-35,38; 38,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 39,48</t>
+          <t>-50,51; 31,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,49; 92,18</t>
+          <t>-41,96; 96,24</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 0,48</t>
+          <t>-3,33; 0,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,25; -0,07</t>
+          <t>-5,13; -0,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,82</t>
+          <t>-2,73; 1,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,05</t>
+          <t>-2,37; 1,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 10,56</t>
+          <t>-49,08; 12,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,75; -0,67</t>
+          <t>-47,16; -1,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,71; 33,84</t>
+          <t>-36,9; 32,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 39,84</t>
+          <t>-30,23; 36,89</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -1,08</t>
+          <t>-3,46; -1,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,12</t>
+          <t>-2,6; 0,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,59</t>
+          <t>-1,53; 0,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,59</t>
+          <t>-1,44; 1,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,0; -15,88</t>
+          <t>-42,52; -14,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 1,61</t>
+          <t>-27,97; 0,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 10,77</t>
+          <t>-23,53; 13,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 32,53</t>
+          <t>-21,17; 30,97</t>
         </is>
       </c>
     </row>
